--- a/data/trans_orig/P6713-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1826</v>
+        <v>1849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11406</v>
+        <v>11205</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01648194592122707</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006051313645652054</v>
+        <v>0.006128751955288596</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03779845627899805</v>
+        <v>0.03713378130684945</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -763,19 +763,19 @@
         <v>3052</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>961</v>
+        <v>942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8261</v>
+        <v>8196</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01570074067743561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004941248412193636</v>
+        <v>0.004847496098693707</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04249365020541225</v>
+        <v>0.04215874365217254</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -784,19 +784,19 @@
         <v>8026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3822</v>
+        <v>3850</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15486</v>
+        <v>16150</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01617584204359818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007702194508241795</v>
+        <v>0.007759279222815612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03121110404315027</v>
+        <v>0.03255038097664072</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>4974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1855</v>
+        <v>1966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10926</v>
+        <v>11110</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01648379165088411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006146992664830767</v>
+        <v>0.006514023670195093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03620812482277197</v>
+        <v>0.03682044469349691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -834,19 +834,19 @@
         <v>5320</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11975</v>
+        <v>11542</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02736365632921242</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0103554987296911</v>
+        <v>0.01040829146651729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06159673255409556</v>
+        <v>0.05936639963280527</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -855,19 +855,19 @@
         <v>10294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5401</v>
+        <v>5126</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19327</v>
+        <v>17898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02074690789668716</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0108862312707616</v>
+        <v>0.01033113217786934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03895220946348675</v>
+        <v>0.03607363848541705</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>49750</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36080</v>
+        <v>36794</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63230</v>
+        <v>64594</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1648720063770876</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.119571319610176</v>
+        <v>0.1219360180991633</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.209545255235785</v>
+        <v>0.2140652029066175</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -905,19 +905,19 @@
         <v>17753</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10272</v>
+        <v>10240</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27038</v>
+        <v>28523</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09131564184424729</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05283532863047086</v>
+        <v>0.05266891641140203</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1390739771585214</v>
+        <v>0.1467122895623037</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -926,19 +926,19 @@
         <v>67503</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52174</v>
+        <v>54070</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85109</v>
+        <v>85229</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1360500180625836</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.105154915014398</v>
+        <v>0.1089760265312813</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1715340641896365</v>
+        <v>0.1717762652429661</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>51563</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37700</v>
+        <v>39529</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64695</v>
+        <v>66572</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1708819984685133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1249399327855283</v>
+        <v>0.1310011514618759</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2143998996949303</v>
+        <v>0.2206218147762552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -976,19 +976,19 @@
         <v>39484</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27199</v>
+        <v>27705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52719</v>
+        <v>52307</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2030918174708926</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1399019047937643</v>
+        <v>0.1425067749866001</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2711669241133001</v>
+        <v>0.2690494954948736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -997,19 +997,19 @@
         <v>91047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74800</v>
+        <v>73781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110319</v>
+        <v>109662</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.183502946129465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1507565933031558</v>
+        <v>0.1487038295923824</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2223443212535904</v>
+        <v>0.2210209782577109</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>190488</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174168</v>
+        <v>171138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>208872</v>
+        <v>206259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.631280257582288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5771977000628684</v>
+        <v>0.5671550216818637</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6922052612024083</v>
+        <v>0.6835474116532173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -1047,19 +1047,19 @@
         <v>128805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115263</v>
+        <v>114769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>142844</v>
+        <v>142777</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.662528143678212</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5928716642314036</v>
+        <v>0.5903305592695635</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.73474143332538</v>
+        <v>0.7343959010047169</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>295</v>
@@ -1068,19 +1068,19 @@
         <v>319292</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>296760</v>
+        <v>297500</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>344146</v>
+        <v>341402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.643524285867666</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5981109739435155</v>
+        <v>0.5996034440278286</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6936170796188553</v>
+        <v>0.6880848621456236</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>3382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9295</v>
+        <v>10695</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01324993467525329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003473730844394365</v>
+        <v>0.003543090117534318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03641319809065518</v>
+        <v>0.04189838718078621</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1193,19 +1193,19 @@
         <v>6140</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2915</v>
+        <v>2086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13186</v>
+        <v>12517</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03676003788791194</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01745159851271527</v>
+        <v>0.01248821841126819</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07893881317280348</v>
+        <v>0.0749343684840361</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1214,19 +1214,19 @@
         <v>9523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4132</v>
+        <v>4345</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17353</v>
+        <v>17381</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02254895299454348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009784149119710234</v>
+        <v>0.01028840732919805</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04109227825583741</v>
+        <v>0.04115790168980354</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>10272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4930</v>
+        <v>4098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20151</v>
+        <v>20118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04024007505499631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01931196735370305</v>
+        <v>0.01605457570352841</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07893910103379145</v>
+        <v>0.07881243237992575</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1264,19 +1264,19 @@
         <v>10221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5033</v>
+        <v>4129</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19489</v>
+        <v>18353</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0611891035562726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03013257530372792</v>
+        <v>0.02471708545713678</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1166786854774675</v>
+        <v>0.1098744758604678</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1285,19 +1285,19 @@
         <v>20493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12063</v>
+        <v>11705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32286</v>
+        <v>32572</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0485261041737375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02856463213972505</v>
+        <v>0.02771727835533379</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07645281477089751</v>
+        <v>0.07712878657993788</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>40543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29215</v>
+        <v>28659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53355</v>
+        <v>54693</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1588240697788025</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1144491045589739</v>
+        <v>0.1122691147149115</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2090148276875098</v>
+        <v>0.2142573693305607</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1335,19 +1335,19 @@
         <v>36364</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27193</v>
+        <v>25911</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49883</v>
+        <v>48240</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2177009594065947</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1628007461886085</v>
+        <v>0.1551206484862057</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.298638992634037</v>
+        <v>0.2888044021070233</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -1356,19 +1356,19 @@
         <v>76907</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61523</v>
+        <v>60755</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>94065</v>
+        <v>94774</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1821118142127306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1456830454394252</v>
+        <v>0.1438642767371086</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2227430125058604</v>
+        <v>0.224419771282432</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>68237</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53273</v>
+        <v>54499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85372</v>
+        <v>83718</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2673128536461756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2086928703658462</v>
+        <v>0.2134969969972723</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3344375700963795</v>
+        <v>0.3279602325072796</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1406,19 +1406,19 @@
         <v>42035</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30586</v>
+        <v>31194</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54638</v>
+        <v>55469</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2516519338682346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1831131768774903</v>
+        <v>0.1867537120175339</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3271063943527777</v>
+        <v>0.3320795173369504</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -1427,19 +1427,19 @@
         <v>110272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93757</v>
+        <v>92709</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130966</v>
+        <v>129410</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.261118445285025</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2220116103535181</v>
+        <v>0.2195304497755356</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3101212283739493</v>
+        <v>0.3064377987228554</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>132835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>114940</v>
+        <v>116628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148392</v>
+        <v>150646</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5203730668447722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4502700999812451</v>
+        <v>0.4568821093644445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5813173719417417</v>
+        <v>0.5901455494763784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -1477,19 +1477,19 @@
         <v>72276</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58579</v>
+        <v>59813</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84761</v>
+        <v>87614</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4326979652809861</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3507003067585603</v>
+        <v>0.3580861587921228</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5074459468038718</v>
+        <v>0.5245247950177087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>185</v>
@@ -1498,19 +1498,19 @@
         <v>205111</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>183752</v>
+        <v>183277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>229172</v>
+        <v>227241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4856946833339635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4351169934134997</v>
+        <v>0.4339911947229637</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5426693469080821</v>
+        <v>0.5380965758157814</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>5163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2008</v>
+        <v>1906</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11213</v>
+        <v>11428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01846840942916313</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007181996770441565</v>
+        <v>0.006816443156855017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04010876465389453</v>
+        <v>0.04087755458651724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1623,19 +1623,19 @@
         <v>3932</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>977</v>
+        <v>1026</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11867</v>
+        <v>12241</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03622546427481661</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009002300046757564</v>
+        <v>0.00945352308950847</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.109317929420352</v>
+        <v>0.1127682703642445</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1644,19 +1644,19 @@
         <v>9095</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4074</v>
+        <v>4136</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18029</v>
+        <v>17832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02343497647595265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01049827919130206</v>
+        <v>0.0106560983624919</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04645394141800516</v>
+        <v>0.04594686336110566</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>14593</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7993</v>
+        <v>7539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23426</v>
+        <v>24815</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05220019155654671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02859276090591812</v>
+        <v>0.02696693405418251</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08379648992080234</v>
+        <v>0.0887651205784023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1694,19 +1694,19 @@
         <v>4375</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1159</v>
+        <v>1097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12123</v>
+        <v>10114</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04030213062074665</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01067832294916404</v>
+        <v>0.01010512129053967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1116811259739815</v>
+        <v>0.09317388995681018</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -1715,19 +1715,19 @@
         <v>18968</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11485</v>
+        <v>10784</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29675</v>
+        <v>29503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04887235831628937</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02959327039224543</v>
+        <v>0.02778714364345664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07645954075332137</v>
+        <v>0.0760169860727589</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>47210</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36108</v>
+        <v>35050</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60951</v>
+        <v>59171</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1688747412349548</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1291627509298904</v>
+        <v>0.1253775077524152</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2180253581939276</v>
+        <v>0.2116589041823621</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -1765,19 +1765,19 @@
         <v>19472</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12213</v>
+        <v>12279</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27310</v>
+        <v>28731</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1793815659149386</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1125035265287226</v>
+        <v>0.1131192428773072</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2515856730093284</v>
+        <v>0.264671867876817</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -1786,19 +1786,19 @@
         <v>66683</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53601</v>
+        <v>53643</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83922</v>
+        <v>82246</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1718134520558416</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1381066176125583</v>
+        <v>0.1382152975641506</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2162327575639033</v>
+        <v>0.2119147246625986</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>72955</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58367</v>
+        <v>59538</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87871</v>
+        <v>88316</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2609663413550727</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2087818283487439</v>
+        <v>0.2129721387776433</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.314320402427721</v>
+        <v>0.3159112100339818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1836,19 +1836,19 @@
         <v>20494</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12685</v>
+        <v>13344</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29176</v>
+        <v>29476</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1887966709044789</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1168511181884325</v>
+        <v>0.1229281757240417</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2687718899515241</v>
+        <v>0.2715315869328748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>94</v>
@@ -1857,19 +1857,19 @@
         <v>93450</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77403</v>
+        <v>77575</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110389</v>
+        <v>110890</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2407808145234475</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1994350921331399</v>
+        <v>0.1998774199976377</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2844266503216165</v>
+        <v>0.2857175248359329</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>139637</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>122480</v>
+        <v>123036</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>156786</v>
+        <v>156563</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4994903164242627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4381186485797688</v>
+        <v>0.440109939307142</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5608370375725754</v>
+        <v>0.560038803394179</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -1907,19 +1907,19 @@
         <v>60279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50212</v>
+        <v>48721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70680</v>
+        <v>70894</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5552941682850192</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4625602517374671</v>
+        <v>0.4488217301688164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6511111978773543</v>
+        <v>0.6530851804074972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>192</v>
@@ -1928,19 +1928,19 @@
         <v>199915</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>180553</v>
+        <v>181425</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>219135</v>
+        <v>220507</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.515098398628469</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4652090727986914</v>
+        <v>0.4674576038156067</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5646202815542071</v>
+        <v>0.5681553573043985</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>18326</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10986</v>
+        <v>10253</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29820</v>
+        <v>29176</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04323509609870149</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.025917623617758</v>
+        <v>0.02418828879893424</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07035098063948036</v>
+        <v>0.06883015555046018</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2053,19 +2053,19 @@
         <v>20206</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12519</v>
+        <v>12850</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29860</v>
+        <v>30446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06788202074928942</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04205859779609882</v>
+        <v>0.04317045401896669</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1003157239727822</v>
+        <v>0.102284468747838</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -2074,19 +2074,19 @@
         <v>38532</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27030</v>
+        <v>26844</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53154</v>
+        <v>52920</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05340277951654419</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03746157735343267</v>
+        <v>0.03720393876153293</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07366861364521279</v>
+        <v>0.07334362821292849</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>32992</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22120</v>
+        <v>22366</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46472</v>
+        <v>47270</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07783425201197422</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05218543633618884</v>
+        <v>0.05276513145754878</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1096355222730647</v>
+        <v>0.1115175502757316</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -2124,19 +2124,19 @@
         <v>17371</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10681</v>
+        <v>9809</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26707</v>
+        <v>27337</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05835768270044516</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0358832200897007</v>
+        <v>0.03295438202985909</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08972243711258357</v>
+        <v>0.09184144953260799</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -2145,19 +2145,19 @@
         <v>50363</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>36912</v>
+        <v>36862</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>64691</v>
+        <v>64028</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06979951365687587</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05115711399160626</v>
+        <v>0.05108871576913091</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08965757380726368</v>
+        <v>0.08873950532316624</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>110808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>94284</v>
+        <v>92309</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>129491</v>
+        <v>131733</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2614143791516196</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2224317775265526</v>
+        <v>0.217773553319317</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3054924923378908</v>
+        <v>0.3107818054362971</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>78</v>
@@ -2195,19 +2195,19 @@
         <v>82444</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>67621</v>
+        <v>67335</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>99668</v>
+        <v>97979</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2769769170657667</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2271789468974478</v>
+        <v>0.2262163183360604</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3348407535224602</v>
+        <v>0.3291668905767812</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>185</v>
@@ -2216,19 +2216,19 @@
         <v>193251</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>170453</v>
+        <v>168438</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>220922</v>
+        <v>218095</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2678344482244338</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2362367738511813</v>
+        <v>0.233445063035475</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3061843257027193</v>
+        <v>0.3022656676702999</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>101247</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>82272</v>
+        <v>84339</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120362</v>
+        <v>122144</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2388590959538816</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1940940225727804</v>
+        <v>0.1989698933719034</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2839551577086759</v>
+        <v>0.2881583919530872</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -2266,19 +2266,19 @@
         <v>67046</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53595</v>
+        <v>54090</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>81972</v>
+        <v>82724</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2252459335157544</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1800568859218176</v>
+        <v>0.1817202818532627</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2753892615800486</v>
+        <v>0.2779160034217735</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -2287,19 +2287,19 @@
         <v>168293</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>145228</v>
+        <v>144569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>191627</v>
+        <v>194378</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2332432096739987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2012776692151942</v>
+        <v>0.200363729012283</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2655834947546394</v>
+        <v>0.2693957421776372</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>160504</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>140703</v>
+        <v>139847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>182136</v>
+        <v>181054</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.378657176783823</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3319419928329315</v>
+        <v>0.3299238398123131</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4296901879832293</v>
+        <v>0.427138317263966</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>104</v>
@@ -2337,19 +2337,19 @@
         <v>110591</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94699</v>
+        <v>93389</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>129136</v>
+        <v>126988</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3715374459687443</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3181474611897711</v>
+        <v>0.3137478528682568</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4338420082220724</v>
+        <v>0.4266263379550619</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>257</v>
@@ -2358,19 +2358,19 @@
         <v>271094</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>243464</v>
+        <v>244931</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>295432</v>
+        <v>300560</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3757200489281474</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3374262404865393</v>
+        <v>0.3394585886839058</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4094500657037966</v>
+        <v>0.4165576317103996</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>25982</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18151</v>
+        <v>17849</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>36394</v>
+        <v>36458</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1720847524664132</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1202189322257677</v>
+        <v>0.1182172616822822</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2410478365190957</v>
+        <v>0.2414730451720806</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2483,19 +2483,19 @@
         <v>26019</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17647</v>
+        <v>17684</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37050</v>
+        <v>36670</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1497297425490959</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1015489609683179</v>
+        <v>0.1017638707002806</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2132051024780875</v>
+        <v>0.2110220826010055</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>49</v>
@@ -2504,19 +2504,19 @@
         <v>52001</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>40641</v>
+        <v>39277</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>68156</v>
+        <v>66709</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1601227624200724</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1251432761368314</v>
+        <v>0.1209425400412004</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.209866997101619</v>
+        <v>0.2054117369231212</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>12847</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7026</v>
+        <v>6558</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21360</v>
+        <v>20551</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0850927668849679</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04653399899743808</v>
+        <v>0.04343619543034914</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.141474139134026</v>
+        <v>0.1361132732671972</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -2554,19 +2554,19 @@
         <v>26481</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17261</v>
+        <v>17609</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37753</v>
+        <v>36787</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1523873917886613</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09933107618117824</v>
+        <v>0.1013324088091271</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.217250121186172</v>
+        <v>0.2116927138266023</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -2575,19 +2575,19 @@
         <v>39329</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28870</v>
+        <v>27278</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53795</v>
+        <v>54228</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1211015915845552</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08889575982277489</v>
+        <v>0.08399489095659253</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1656458425215269</v>
+        <v>0.1669787542869431</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>39019</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28028</v>
+        <v>29279</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>51041</v>
+        <v>52554</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2584332953521584</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1856355627851178</v>
+        <v>0.1939269337748334</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3380610181321393</v>
+        <v>0.3480807456180605</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -2625,19 +2625,19 @@
         <v>41666</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>31323</v>
+        <v>30423</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55118</v>
+        <v>52580</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2397701549342687</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1802512208655215</v>
+        <v>0.1750733001403691</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3171793345877333</v>
+        <v>0.3025741543844243</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>74</v>
@@ -2646,19 +2646,19 @@
         <v>80685</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>66071</v>
+        <v>65482</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>97801</v>
+        <v>98162</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2484467956486035</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2034470467788906</v>
+        <v>0.201634379558312</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3011505741126057</v>
+        <v>0.3022640826056194</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>30837</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20260</v>
+        <v>21878</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41357</v>
+        <v>41743</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.204245613407146</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1341907445002957</v>
+        <v>0.1449028892538129</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2739225370378288</v>
+        <v>0.2764784729091354</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -2696,19 +2696,19 @@
         <v>29660</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21256</v>
+        <v>20704</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>40632</v>
+        <v>40883</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1706810772147593</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1223185390795833</v>
+        <v>0.1191426205826032</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.233820609746021</v>
+        <v>0.2352654294825581</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>57</v>
@@ -2717,19 +2717,19 @@
         <v>60498</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>46695</v>
+        <v>45945</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>75108</v>
+        <v>75980</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1862854939829827</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1437842997996581</v>
+        <v>0.1414759447466667</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.231274210122606</v>
+        <v>0.2339582943675147</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>42297</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31138</v>
+        <v>31886</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54117</v>
+        <v>54529</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2801435718893145</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2062378120572426</v>
+        <v>0.2111933893056605</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3584332920856971</v>
+        <v>0.3611612483003054</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>45</v>
@@ -2767,19 +2767,19 @@
         <v>49948</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37808</v>
+        <v>38502</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62774</v>
+        <v>62667</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2874316335132148</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2175666707929073</v>
+        <v>0.2215596650684338</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3612369161138252</v>
+        <v>0.3606222298531269</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>85</v>
@@ -2788,19 +2788,19 @@
         <v>92245</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75914</v>
+        <v>74815</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>109722</v>
+        <v>109120</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2840433563637861</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2337574688307934</v>
+        <v>0.2303721624514751</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3378580791424292</v>
+        <v>0.3360058643058538</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>57827</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>43441</v>
+        <v>44484</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>74387</v>
+        <v>77246</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04097020168855608</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03077783085729212</v>
+        <v>0.03151710401479188</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05270300978670856</v>
+        <v>0.05472880085389245</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>55</v>
@@ -2913,19 +2913,19 @@
         <v>59350</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45584</v>
+        <v>46179</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>76566</v>
+        <v>75896</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06304198816227242</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04841974113738107</v>
+        <v>0.04905131899830232</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08132920147748759</v>
+        <v>0.08061756832343743</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>108</v>
@@ -2934,19 +2934,19 @@
         <v>117177</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>95608</v>
+        <v>96381</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>138536</v>
+        <v>140290</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04980160379330366</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04063479548176175</v>
+        <v>0.04096329472882724</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05887978862717598</v>
+        <v>0.05962504798394787</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>75679</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>57502</v>
+        <v>59308</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>95781</v>
+        <v>95318</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05361821888654143</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04074042929490913</v>
+        <v>0.04201997186906358</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06786086628963134</v>
+        <v>0.06753302966407149</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>57</v>
@@ -2984,19 +2984,19 @@
         <v>63767</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>48947</v>
+        <v>48033</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>81404</v>
+        <v>79553</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06773412410677462</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05199165001617936</v>
+        <v>0.05102066710406538</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08646796701477473</v>
+        <v>0.08450173806203747</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>125</v>
@@ -3005,19 +3005,19 @@
         <v>139446</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>116262</v>
+        <v>116408</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>165863</v>
+        <v>168079</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05926629976213511</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04941284960677176</v>
+        <v>0.0494750005720719</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07049377828188524</v>
+        <v>0.07143565787822687</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>287329</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>256709</v>
+        <v>255463</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>319524</v>
+        <v>318011</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2035725429649957</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1818782318342404</v>
+        <v>0.1809956978825017</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2263824928180745</v>
+        <v>0.225310696722705</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>183</v>
@@ -3055,19 +3055,19 @@
         <v>197699</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>172170</v>
+        <v>173820</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>224723</v>
+        <v>224642</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2099980341458622</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1828800955174539</v>
+        <v>0.1846333079030607</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2387027404872804</v>
+        <v>0.2386167916430957</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>455</v>
@@ -3076,19 +3076,19 @@
         <v>485028</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>443651</v>
+        <v>443459</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>524386</v>
+        <v>522894</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2061435218210261</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1885576365252397</v>
+        <v>0.1884757452566495</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2228709145525423</v>
+        <v>0.222236664055712</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>324839</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>293464</v>
+        <v>295171</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>358438</v>
+        <v>359976</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2301485546263789</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2079186888727022</v>
+        <v>0.2091287018194831</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2539533399073665</v>
+        <v>0.2550430506011466</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>181</v>
@@ -3126,19 +3126,19 @@
         <v>198719</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>173680</v>
+        <v>173708</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>225632</v>
+        <v>226566</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2110813573353118</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1844844717995069</v>
+        <v>0.1845146598086098</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2396682688594845</v>
+        <v>0.2406604212914588</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>493</v>
@@ -3147,19 +3147,19 @@
         <v>523559</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>484068</v>
+        <v>484589</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>562502</v>
+        <v>569727</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2225193540408943</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2057351844109541</v>
+        <v>0.2059565200232651</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2390708985048234</v>
+        <v>0.2421413133782709</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>665760</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>625397</v>
+        <v>625337</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>705310</v>
+        <v>703800</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4716904818335279</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4430936413271135</v>
+        <v>0.4430510079047873</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4997115646508757</v>
+        <v>0.4986416742444228</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>393</v>
@@ -3197,19 +3197,19 @@
         <v>421898</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>393019</v>
+        <v>390834</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>453549</v>
+        <v>452471</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.448144496249779</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4174688453678889</v>
+        <v>0.4151479605997987</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.481763977148427</v>
+        <v>0.4806188465559316</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1014</v>
@@ -3218,19 +3218,19 @@
         <v>1087658</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1040299</v>
+        <v>1035771</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1138577</v>
+        <v>1139382</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4622692205826409</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.442140799828048</v>
+        <v>0.4402165694039177</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4839104035365496</v>
+        <v>0.4842522082312795</v>
       </c>
     </row>
     <row r="39">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6583</v>
+        <v>6433</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006720056457842243</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0238464882963474</v>
+        <v>0.02330391969285748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8953</v>
+        <v>10706</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008494394265650077</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04180124401012752</v>
+        <v>0.04998702427909739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3605,19 +3605,19 @@
         <v>3674</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11771</v>
+        <v>13228</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007495243667501032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00185053195900011</v>
+        <v>0.001846985985506846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02401032867330266</v>
+        <v>0.02698249511586742</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>12418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6554</v>
+        <v>6237</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22530</v>
+        <v>24015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04498332965934067</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02374174378059418</v>
+        <v>0.02259307571133814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08161399225335715</v>
+        <v>0.08699288371564105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3655,19 +3655,19 @@
         <v>13880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7268</v>
+        <v>7614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21698</v>
+        <v>22043</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06480480952925781</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03393368656731775</v>
+        <v>0.03555214471413459</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1013123380710158</v>
+        <v>0.1029192128145025</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3676,19 +3676,19 @@
         <v>26297</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17055</v>
+        <v>16907</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38870</v>
+        <v>38234</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05364309985871019</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03478921847393467</v>
+        <v>0.03448909674401007</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07928890731315155</v>
+        <v>0.07799320117842888</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>51025</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38584</v>
+        <v>37025</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65917</v>
+        <v>66374</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1848391374499724</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1397712213677936</v>
+        <v>0.1341220673313534</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2387855459831947</v>
+        <v>0.2404402755271058</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -3726,19 +3726,19 @@
         <v>27993</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18953</v>
+        <v>19469</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39053</v>
+        <v>39180</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1307040951567548</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08849567908774611</v>
+        <v>0.09090323618117839</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1823434091075361</v>
+        <v>0.1829332508704945</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -3747,19 +3747,19 @@
         <v>79019</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63280</v>
+        <v>63688</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>94625</v>
+        <v>98928</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1611881775282613</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1290835532800538</v>
+        <v>0.1299156913560375</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1930231789360743</v>
+        <v>0.2017995953413814</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>60665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48393</v>
+        <v>47427</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75884</v>
+        <v>76699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2197574588837585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.175304479724945</v>
+        <v>0.1718053200849909</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2748901901374065</v>
+        <v>0.2778407725445683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -3797,19 +3797,19 @@
         <v>53049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41081</v>
+        <v>41697</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66667</v>
+        <v>67328</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2476901989592904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.191813563399288</v>
+        <v>0.1946886580177325</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3112748692504256</v>
+        <v>0.3143625165399849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -3818,19 +3818,19 @@
         <v>113714</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94992</v>
+        <v>94902</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132523</v>
+        <v>133191</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.231960942764896</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1937720841377977</v>
+        <v>0.1935869099553318</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2703290834102721</v>
+        <v>0.2716934200328541</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>150090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>131595</v>
+        <v>131493</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>167506</v>
+        <v>166416</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5437000175490861</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4767021562428147</v>
+        <v>0.4763331082684063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6067904388038264</v>
+        <v>0.6028422596376742</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -3868,19 +3868,19 @@
         <v>117433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>103095</v>
+        <v>101347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>131100</v>
+        <v>130905</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5483065020890469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4813599095070004</v>
+        <v>0.4732015918362911</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6121181558983179</v>
+        <v>0.6112063252638907</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>250</v>
@@ -3889,19 +3889,19 @@
         <v>267523</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>244552</v>
+        <v>246048</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>288999</v>
+        <v>288773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5457125361806314</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4988548846387229</v>
+        <v>0.5019065232469132</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.589520063527444</v>
+        <v>0.5890594765353102</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>6661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2715</v>
+        <v>2860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14449</v>
+        <v>15143</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02738347843971455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01116153364048636</v>
+        <v>0.01175976425639567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05940286054264386</v>
+        <v>0.0622549960056466</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4014,19 +4014,19 @@
         <v>7838</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3370</v>
+        <v>3483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15933</v>
+        <v>16527</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04143079228428056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01781636413292437</v>
+        <v>0.01841291773977947</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08422443581279922</v>
+        <v>0.08736286754034213</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -4035,19 +4035,19 @@
         <v>14498</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7937</v>
+        <v>7728</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23339</v>
+        <v>24169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03352902946632669</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01835538368521724</v>
+        <v>0.01787281382612951</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05397410441845544</v>
+        <v>0.05589257620330638</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>21675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14215</v>
+        <v>14100</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32195</v>
+        <v>32171</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08910939300279833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05844051806926172</v>
+        <v>0.05796785268892942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.132358735669529</v>
+        <v>0.1322618316783595</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -4085,19 +4085,19 @@
         <v>22232</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14234</v>
+        <v>14375</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32103</v>
+        <v>31844</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1175221607118767</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07524127448868365</v>
+        <v>0.07598815876977771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1696978153557318</v>
+        <v>0.1683278631282751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -4106,19 +4106,19 @@
         <v>43907</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32627</v>
+        <v>32886</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58078</v>
+        <v>58549</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1015396779452085</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07545329510398131</v>
+        <v>0.07605203822628286</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.13431044384389</v>
+        <v>0.135399798334045</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>54410</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41769</v>
+        <v>42476</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71305</v>
+        <v>70778</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2236895096425418</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1717227738383311</v>
+        <v>0.1746294023139425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2931513469800848</v>
+        <v>0.29098550791357</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -4156,19 +4156,19 @@
         <v>54475</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42739</v>
+        <v>43385</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>67286</v>
+        <v>69547</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2879568690394487</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.225923824267784</v>
+        <v>0.2293381665478513</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3556786188610228</v>
+        <v>0.3676320641504775</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>100</v>
@@ -4177,19 +4177,19 @@
         <v>108884</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>92449</v>
+        <v>89507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127619</v>
+        <v>128102</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.251805798698908</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2137987775176349</v>
+        <v>0.2069935956799293</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2951317416151167</v>
+        <v>0.2962482358553748</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>68386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54918</v>
+        <v>55071</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86132</v>
+        <v>85523</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2811511990339812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2257796751606518</v>
+        <v>0.2264089413960403</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3541073937505937</v>
+        <v>0.3516045203180342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -4227,19 +4227,19 @@
         <v>49005</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37620</v>
+        <v>38334</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61369</v>
+        <v>62587</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2590425874747534</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1988619020793757</v>
+        <v>0.2026393150438943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3243993022909837</v>
+        <v>0.3308394125280208</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -4248,19 +4248,19 @@
         <v>117391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98684</v>
+        <v>98638</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137540</v>
+        <v>137960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2714789156374413</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2282180782214081</v>
+        <v>0.2281112001264422</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3180747348160635</v>
+        <v>0.3190459175206951</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>92106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>74655</v>
+        <v>76259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108722</v>
+        <v>107741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3786664198809641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3069241936031428</v>
+        <v>0.3135159977912152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4469780139102754</v>
+        <v>0.4429471456626259</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -4298,19 +4298,19 @@
         <v>55627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42114</v>
+        <v>42832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68299</v>
+        <v>68746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2940475904896407</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2226205766990922</v>
+        <v>0.2264133723017266</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3610354389513061</v>
+        <v>0.3633986498057704</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -4319,19 +4319,19 @@
         <v>147732</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>125458</v>
+        <v>127877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167828</v>
+        <v>169857</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3416465782521156</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2901354639882954</v>
+        <v>0.2957277810522686</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3881207894092881</v>
+        <v>0.3928111619765043</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>6002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2158</v>
+        <v>2189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12787</v>
+        <v>13989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02774542791522085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009975879161699827</v>
+        <v>0.01011870752720243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05911077022961216</v>
+        <v>0.06466674279388744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5111</v>
+        <v>4039</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01506530735810835</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07848719126497332</v>
+        <v>0.0620292344568631</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4465,19 +4465,19 @@
         <v>6983</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3171</v>
+        <v>2669</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16200</v>
+        <v>14466</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02481161080160725</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01126663477262164</v>
+        <v>0.009484142587218894</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0575594202429243</v>
+        <v>0.05139768786990161</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>13595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7536</v>
+        <v>7414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23007</v>
+        <v>23337</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06284469794269877</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03483855797085839</v>
+        <v>0.03427401284493949</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1063528040714484</v>
+        <v>0.1078812679903152</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -4515,19 +4515,19 @@
         <v>4807</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1862</v>
+        <v>1826</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9962</v>
+        <v>10352</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07382185685238989</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0286017822728624</v>
+        <v>0.02804717390596128</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1529834844952324</v>
+        <v>0.1589701618961021</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -4536,19 +4536,19 @@
         <v>18402</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11107</v>
+        <v>11735</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28607</v>
+        <v>27871</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06538449845351044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03946597693202454</v>
+        <v>0.04169645241310652</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1016456334820988</v>
+        <v>0.09903062542464242</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>53547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>41686</v>
+        <v>40782</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>67618</v>
+        <v>65897</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2475287859611117</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1927018968292467</v>
+        <v>0.1885226054335367</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3125755546661755</v>
+        <v>0.3046196381816879</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -4586,19 +4586,19 @@
         <v>10314</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5303</v>
+        <v>5632</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17041</v>
+        <v>17252</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1583854655009606</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08144246596727678</v>
+        <v>0.08649577125397867</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2616973508271674</v>
+        <v>0.2649370929121856</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -4607,19 +4607,19 @@
         <v>63860</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51122</v>
+        <v>50213</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79458</v>
+        <v>79410</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2269035720325552</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1816421015087397</v>
+        <v>0.1784133230660101</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2823220276617862</v>
+        <v>0.2821514569903437</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>63576</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49975</v>
+        <v>50235</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78702</v>
+        <v>77330</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2938932567019454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2310181733169492</v>
+        <v>0.2322186472847101</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3638142610201224</v>
+        <v>0.3574693101366135</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -4657,19 +4657,19 @@
         <v>21755</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14474</v>
+        <v>14524</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29233</v>
+        <v>29851</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3340879868775915</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2222667009108241</v>
+        <v>0.2230390815744883</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4489251338085038</v>
+        <v>0.4584102564597222</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -4678,19 +4678,19 @@
         <v>85332</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69563</v>
+        <v>70885</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100807</v>
+        <v>101642</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3031931672773417</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2471649736993864</v>
+        <v>0.2518628951999529</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3581795851105756</v>
+        <v>0.361144792112096</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>79605</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65950</v>
+        <v>65524</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96542</v>
+        <v>94736</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3679878314790233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3048639685556797</v>
+        <v>0.3028981737095642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4462824702411139</v>
+        <v>0.4379328354087078</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -4728,19 +4728,19 @@
         <v>27261</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19207</v>
+        <v>19506</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35857</v>
+        <v>36111</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4186393834109496</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2949620029592662</v>
+        <v>0.2995533325775786</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.550641163974023</v>
+        <v>0.554548218553344</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>101</v>
@@ -4749,19 +4749,19 @@
         <v>106866</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>91209</v>
+        <v>89136</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>124458</v>
+        <v>123334</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3797071514349854</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3240749530208811</v>
+        <v>0.3167116679983633</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4422130866821554</v>
+        <v>0.4382205114564582</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>41130</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30823</v>
+        <v>29720</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56021</v>
+        <v>54990</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08433514501253959</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0632012904786849</v>
+        <v>0.06093899719656552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1148675481031304</v>
+        <v>0.1127529394632159</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -4874,19 +4874,19 @@
         <v>28457</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18629</v>
+        <v>19481</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40255</v>
+        <v>39501</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07797696760758847</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05104522478230394</v>
+        <v>0.05338085269197194</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1103045473131334</v>
+        <v>0.108239954402678</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -4895,19 +4895,19 @@
         <v>69587</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54753</v>
+        <v>53948</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87497</v>
+        <v>85229</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08161376538632174</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06421575241359222</v>
+        <v>0.06327120411968828</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1026182790683799</v>
+        <v>0.09995824793826236</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>60299</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46411</v>
+        <v>46186</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75460</v>
+        <v>76272</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.123639578621878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09516214347406905</v>
+        <v>0.09470093519815793</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1547261893245311</v>
+        <v>0.1563917264872035</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>50</v>
@@ -4945,19 +4945,19 @@
         <v>48785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36796</v>
+        <v>36690</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>62950</v>
+        <v>62660</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1336797064236297</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.100828134617472</v>
+        <v>0.1005361581583052</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1724917943962098</v>
+        <v>0.1716992018715364</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>109</v>
@@ -4966,19 +4966,19 @@
         <v>109084</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>90281</v>
+        <v>90772</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>128195</v>
+        <v>127370</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1279368791695214</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1058842095554834</v>
+        <v>0.1064598955047993</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.150350125149738</v>
+        <v>0.1493828238062027</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>139577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>119714</v>
+        <v>120329</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>162930</v>
+        <v>161178</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2861932339161802</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2454666270479514</v>
+        <v>0.2467274480318431</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3340784282219529</v>
+        <v>0.330485676068447</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>83</v>
@@ -5016,19 +5016,19 @@
         <v>83279</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66859</v>
+        <v>68398</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>99601</v>
+        <v>100012</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2281983005939039</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1832033924856274</v>
+        <v>0.1874221348796446</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2729234378664252</v>
+        <v>0.2740478143426994</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>212</v>
@@ -5037,19 +5037,19 @@
         <v>222856</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>197410</v>
+        <v>198545</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>246612</v>
+        <v>250208</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2613706755137981</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2315279427509055</v>
+        <v>0.2328584317742027</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2892331672743622</v>
+        <v>0.2934506790259401</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>129411</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110996</v>
+        <v>111959</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>150792</v>
+        <v>150247</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2653483288487422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2275911708178981</v>
+        <v>0.2295641168004684</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3091903450363501</v>
+        <v>0.3080725283869885</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>115</v>
@@ -5087,19 +5087,19 @@
         <v>115863</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99114</v>
+        <v>97450</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>134383</v>
+        <v>133340</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3174827907675427</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2715895540306528</v>
+        <v>0.2670283399797823</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3682317597249547</v>
+        <v>0.3653728153877384</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>240</v>
@@ -5108,19 +5108,19 @@
         <v>245273</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>219069</v>
+        <v>220243</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>272524</v>
+        <v>274173</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2876625320320591</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2569292780118163</v>
+        <v>0.2583069055419746</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3196228083710423</v>
+        <v>0.3215567673406999</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>117284</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>99887</v>
+        <v>98704</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>137003</v>
+        <v>136072</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.24048371360066</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2048117034405239</v>
+        <v>0.2023867153037636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2809162971851387</v>
+        <v>0.2790069165453838</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>85</v>
@@ -5158,19 +5158,19 @@
         <v>88558</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73755</v>
+        <v>73704</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>107642</v>
+        <v>104184</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2426622346073353</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2021015884901267</v>
+        <v>0.2019621761363234</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2949572251974004</v>
+        <v>0.2854810610720469</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>196</v>
@@ -5179,19 +5179,19 @@
         <v>205842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>183101</v>
+        <v>181626</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>236797</v>
+        <v>231279</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2414161478982997</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2147452139191888</v>
+        <v>0.2130153478071657</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2777213535804614</v>
+        <v>0.271250092678658</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>25875</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16959</v>
+        <v>16980</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>37711</v>
+        <v>37069</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1340497311457746</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08785870989441956</v>
+        <v>0.08796781728995158</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1953722761839718</v>
+        <v>0.1920476749150216</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>49</v>
@@ -5304,19 +5304,19 @@
         <v>50562</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38224</v>
+        <v>39077</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>63582</v>
+        <v>63449</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2558569055929718</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1934236873582726</v>
+        <v>0.1977367465981053</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3217423048977431</v>
+        <v>0.3210650058809305</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>72</v>
@@ -5325,19 +5325,19 @@
         <v>76437</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61207</v>
+        <v>61095</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>93511</v>
+        <v>93612</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1956700678209127</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1566831904823001</v>
+        <v>0.1563968038064456</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2393786007665863</v>
+        <v>0.2396374106165277</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>27604</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18979</v>
+        <v>18537</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40351</v>
+        <v>38211</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1430114721500663</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09832393746402973</v>
+        <v>0.09603760632120167</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2090473114677642</v>
+        <v>0.1979595760658376</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -5375,19 +5375,19 @@
         <v>36968</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26995</v>
+        <v>26226</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47651</v>
+        <v>47487</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1870651334586417</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1366031945540088</v>
+        <v>0.1327114832290353</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2411265676206215</v>
+        <v>0.2402982093398877</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>62</v>
@@ -5396,19 +5396,19 @@
         <v>64572</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>49669</v>
+        <v>50717</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79899</v>
+        <v>80191</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1652975275809283</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1271471255911593</v>
+        <v>0.1298301291173063</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2045338137761978</v>
+        <v>0.2052798334299429</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>59357</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46126</v>
+        <v>46406</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72898</v>
+        <v>72575</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3075162162375458</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2389661042751345</v>
+        <v>0.2404207348619256</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3776653628329328</v>
+        <v>0.3759958390127633</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>51</v>
@@ -5446,19 +5446,19 @@
         <v>53408</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41026</v>
+        <v>41483</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>66988</v>
+        <v>66622</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2702588237801568</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2075996781906842</v>
+        <v>0.2099133115079424</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3389736360048751</v>
+        <v>0.3371236677568433</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>107</v>
@@ -5467,19 +5467,19 @@
         <v>112765</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>96153</v>
+        <v>93978</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>132192</v>
+        <v>131179</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.288668286488898</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2461423670084729</v>
+        <v>0.2405738048075498</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.338398969944758</v>
+        <v>0.3358045355632953</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>39409</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28073</v>
+        <v>29324</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>53062</v>
+        <v>51876</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2041707140657688</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1454411544989751</v>
+        <v>0.1519213707941983</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.274901859385798</v>
+        <v>0.2687568364212391</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>33</v>
@@ -5517,19 +5517,19 @@
         <v>33689</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24521</v>
+        <v>23966</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45883</v>
+        <v>46300</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1704759945181274</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1240846976788271</v>
+        <v>0.1212744887243392</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2321808220467722</v>
+        <v>0.2342867453183035</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>68</v>
@@ -5538,19 +5538,19 @@
         <v>73099</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>58777</v>
+        <v>57879</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>88589</v>
+        <v>88283</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1871250845934254</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1504637157802046</v>
+        <v>0.1481641279774496</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2267800661805207</v>
+        <v>0.2259954320494841</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>40776</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30297</v>
+        <v>30910</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54042</v>
+        <v>54419</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2112518664008446</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1569635118722079</v>
+        <v>0.1601368464787055</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2799778001026133</v>
+        <v>0.2819329053845357</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>22</v>
@@ -5588,19 +5588,19 @@
         <v>22992</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15135</v>
+        <v>15130</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32698</v>
+        <v>33910</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1163431426501023</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07658579738353129</v>
+        <v>0.07655940573831148</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1654601591344829</v>
+        <v>0.1715942239191431</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>59</v>
@@ -5609,19 +5609,19 @@
         <v>63768</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>50441</v>
+        <v>49499</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>79833</v>
+        <v>79449</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1632390335158356</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1291242274320623</v>
+        <v>0.1267124467590897</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2043657470361083</v>
+        <v>0.2033825093145788</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>81523</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>64738</v>
+        <v>64557</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>102744</v>
+        <v>100800</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0575587606373489</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04570797170722726</v>
+        <v>0.0455800028878209</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07254173603670502</v>
+        <v>0.07116980090624336</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>85</v>
@@ -5734,19 +5734,19 @@
         <v>89657</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>73226</v>
+        <v>73129</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>111034</v>
+        <v>108854</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08695897887846611</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07102234929550494</v>
+        <v>0.07092777599618717</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1076921694227631</v>
+        <v>0.1055782337207721</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>160</v>
@@ -5755,19 +5755,19 @@
         <v>171180</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>145471</v>
+        <v>146915</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>199300</v>
+        <v>197213</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06994451501223256</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05944001808889778</v>
+        <v>0.06002979864539845</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08143441501102824</v>
+        <v>0.08058170220752904</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>135591</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>113480</v>
+        <v>115751</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>159293</v>
+        <v>161058</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.095733403523157</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08012192611337542</v>
+        <v>0.08172544256211339</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1124680129698759</v>
+        <v>0.1137143267316382</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>128</v>
@@ -5805,19 +5805,19 @@
         <v>126672</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>106435</v>
+        <v>107644</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>151080</v>
+        <v>149884</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1228597302103509</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1032320832062439</v>
+        <v>0.1044041099287336</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1465333252153012</v>
+        <v>0.1453731737261615</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>256</v>
@@ -5826,19 +5826,19 @@
         <v>262263</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>231989</v>
+        <v>230958</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>296241</v>
+        <v>292063</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1071612105103363</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09479114346306289</v>
+        <v>0.09437025651619883</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1210448539836888</v>
+        <v>0.1193377718628106</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>357915</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>323256</v>
+        <v>322970</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>391257</v>
+        <v>391622</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2527050402941973</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.228233768240073</v>
+        <v>0.2280320215842515</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.276245721110308</v>
+        <v>0.2765032171552299</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>226</v>
@@ -5876,19 +5876,19 @@
         <v>229469</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>204908</v>
+        <v>204574</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>258407</v>
+        <v>256806</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2225631672445602</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1987412306300189</v>
+        <v>0.198417367388854</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2506304619976336</v>
+        <v>0.2490775969002119</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>554</v>
@@ -5897,19 +5897,19 @@
         <v>587384</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>540901</v>
+        <v>541732</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>630113</v>
+        <v>626696</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2400068408138405</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2210136161661737</v>
+        <v>0.2213531908794408</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2574658858663253</v>
+        <v>0.2560698726159946</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>361447</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>329200</v>
+        <v>331507</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>394046</v>
+        <v>395663</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2551987306753759</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2324305389881145</v>
+        <v>0.2340591798086376</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2782150801357452</v>
+        <v>0.2793565612027912</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>269</v>
@@ -5947,19 +5947,19 @@
         <v>273361</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>245332</v>
+        <v>243700</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>301697</v>
+        <v>301592</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2651338245784903</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2379490917948327</v>
+        <v>0.2363658914869781</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2926169783463711</v>
+        <v>0.2925154153571407</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>610</v>
@@ -5968,19 +5968,19 @@
         <v>634808</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>590854</v>
+        <v>584715</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>682276</v>
+        <v>676612</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2593841973194053</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2414244318428472</v>
+        <v>0.238916004123247</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.278779737692178</v>
+        <v>0.2764656997520098</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>479861</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>443728</v>
+        <v>443004</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>518390</v>
+        <v>516152</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3388040648699209</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3132926556445216</v>
+        <v>0.3127811411106473</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3660072832766987</v>
+        <v>0.3644272741674435</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>299</v>
@@ -6018,19 +6018,19 @@
         <v>311870</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>279825</v>
+        <v>282576</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>340952</v>
+        <v>339765</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3024842990881325</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2714040045156807</v>
+        <v>0.2740714475714627</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3306913035007262</v>
+        <v>0.3295397700853068</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>744</v>
@@ -6039,19 +6039,19 @@
         <v>791730</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>750204</v>
+        <v>747955</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>841931</v>
+        <v>837423</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3235032363441853</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3065354584385743</v>
+        <v>0.3056164425718923</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.344015377684338</v>
+        <v>0.3421734030990572</v>
       </c>
     </row>
     <row r="39">
